--- a/xl_data_report.xlsx
+++ b/xl_data_report.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,16 +25,33 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
+    <font>
+      <color rgb="000000FF"/>
+      <u val="single"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D3D3D3"/>
+        <bgColor rgb="00D3D3D3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +59,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -421,274 +456,260 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="100" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>제목</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>댓글</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>KT, MS 투인원 랩톱 '서피스 프로9 5G' 단독 출시</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://davelee-fun.github.io/trial/board/news/18129892%EF%B9%96od=T31&amp;po=0&amp;category=0&amp;groupCd=.html</t>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr"/>
+      <c r="C3" s="4" t="inlineStr"/>
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>1. 국내통신사 + 5G 두개의 단어만 합쳐지면 왜 다 같지않아 보일까용??</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>NIO, 차량가격 인하 및 배터리스왑 옵션으로 분리</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://davelee-fun.github.io/trial/board/news/18129728%EF%B9%96od=T31&amp;po=0&amp;category=0&amp;groupCd=.html</t>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>[2]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>1. 니로가 아니고 니오군용 허허허 배터리스왑은 충전보다 좋을꺼 같아요. 자동차를 스마트폰처럼 방수때문에 배터리 교체형을 버리고 일체형으로 하면충전시간이 너무 긴거같아요.</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>2. 니오 전기차 국내에서도 한대 봤습니다. 모카 영상에 나왔던 이 차량이었어요.어떤 아주머니께서 운전하시던데 홍보용인지개인차량인지...신기하더라고요. ㅎㅎ</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>삼성전자, 게이밍 모니터 ‘오디세이 OLED G9’ 출시</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://davelee-fun.github.io/trial/board/news/18129714%EF%B9%96od=T31&amp;po=0&amp;category=0&amp;groupCd=.html</t>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>[6]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr"/>
+      <c r="C8" s="4" t="inlineStr"/>
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>1. M9은. . . .ㅜ.ㅜ</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr"/>
+      <c r="C9" s="4" t="inlineStr"/>
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>2. 삼성 공식 보도자료인데도 테어링 현상을 티어링이라고 하고 있네요..아수스 노트북같은데 상세페이지에서도 그러던데..하..</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr"/>
+      <c r="C10" s="4" t="inlineStr"/>
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t>3. 이 정도면 기사를 가장한 광고 아닌가요??</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr"/>
+      <c r="C11" s="4" t="inlineStr"/>
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>4. @미드나잇님 삼성전자 뉴스룸이면보도자료죠. 거기서 광고를 하든말든 상관없어보이구요.</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr"/>
+      <c r="C12" s="4" t="inlineStr"/>
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>5. @미드나잇님공식보도자료입니다.https://news.samsung.com/kr/%EC%82%BC%EC%84%B1%EC%A0%84%EC%9E%90-%EA%B2%8C%EC%9D%B4%EB%B0%8D-%EB%AA%A8%EB%8B%88%ED%84%B0-%EC%98%A4%EB%94%94%EC%84%B8%EC%9D%B4-oled-g9-%EC%B6%9C%EC%8B%9C하단에출처로된 기재된 링크로 들어가시면 나와요 https://news.samsung.com/kr/%EC%9D%B8%ED%8F%AC%EA%B7%B8%EB%9E%98%ED%94%BD-%EB%8D%94%EC%9A%B1-%EA%B0%95%EB%A0%A5%ED%95%B4%EC%A7%84-%EC%98%A4%EB%94%94%EC%84%B8%EC%9D%B4-oled-%EA%B2%8C%EC%9D%B4%EB%B0%8D-%EB%AA%A8인포그래픽은이어서 추가한거구요.</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr"/>
+      <c r="C13" s="4" t="inlineStr"/>
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>6. 220만원 진짜 싸게나왔네요 ㄷㄷ못해도 300만은 넘을 줄 알았는데사용기들 보고 반년뒤쯤에 사야겠네요</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>'애플, M3 15인치 맥북에어 개발…내년 출시'</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://davelee-fun.github.io/trial/board/news/18129670%EF%B9%96od=T31&amp;po=0&amp;category=0&amp;groupCd=.html</t>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>[7]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr"/>
+      <c r="C15" s="4" t="inlineStr"/>
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t>1. 올 가을에 나오면 사려고 했는데 내년에 나온다면 지금 바로 M2 모델을 구입하는 게 현명한 선택이겠군요.</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr"/>
+      <c r="C16" s="4" t="inlineStr"/>
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>2. 사실 비전 프로 같은 제품에 M3 같은 3나노 칩셋이 절실한데 말이죠... 이미 전용 프로세서를 따로 설계하고 있을지도 모르겠군요.아이폰도 처음엔 A7+M7 이었는데 지금은 통합된것 처럼요...</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr"/>
+      <c r="C17" s="4" t="inlineStr"/>
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>3. @DLBIA님 그래서 다들 비전프로 2세대를 기대하는건지 모르겠네요.</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr"/>
+      <c r="C18" s="4" t="inlineStr"/>
+      <c r="D18" s="4" t="inlineStr">
         <is>
           <t>4. 비전프로 M3칩 존버 들어갑니다..</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr"/>
+      <c r="C19" s="4" t="inlineStr"/>
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>5. 아니, 아이맥은 대체 언제 나올까요.... 다른 제품들은 이런 루머가 도는데 아이맥은 대체...</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr"/>
+      <c r="C20" s="4" t="inlineStr"/>
+      <c r="D20" s="4" t="inlineStr">
         <is>
           <t>6. 인텔과 tsmc CPU면 2세대 정도 신제품이 나와도 성능차에 신경이 안 쓰이는데 애플기기들은 2~3년이면 골동품을 만들어 버리니.....</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr"/>
+      <c r="C21" s="4" t="inlineStr"/>
+      <c r="D21" s="4" t="inlineStr">
         <is>
           <t>7. 이제 사과에 불 넣을 타이밍 이네요. 이글은 성지가 됩니다?</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C14" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>